--- a/schedules/schedule_teachers-grouped_overview.xlsx
+++ b/schedules/schedule_teachers-grouped_overview.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,6 +933,32 @@
       <c r="Q4" t="n">
         <v>2</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>48</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -1153,6 +1179,32 @@
       <c r="AI6" t="n">
         <v>1</v>
       </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -1179,6 +1231,32 @@
       <c r="H7" t="n">
         <v>8</v>
       </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>48</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -1255,6 +1333,32 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>48</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -1512,6 +1616,34 @@
       </c>
       <c r="AI18" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AB19" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR29"/>
+  <dimension ref="A1:AR30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,6 +2869,32 @@
       <c r="Q10" t="n">
         <v>6</v>
       </c>
+      <c r="S10" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>36</v>
+      </c>
+      <c r="V10" t="n">
+        <v>34</v>
+      </c>
+      <c r="W10" t="n">
+        <v>30</v>
+      </c>
+      <c r="X10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>172</v>
+      </c>
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="inlineStr">
         <is>
@@ -2811,6 +2969,32 @@
       <c r="H11" t="n">
         <v>4</v>
       </c>
+      <c r="J11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M11" t="n">
+        <v>34</v>
+      </c>
+      <c r="N11" t="n">
+        <v>30</v>
+      </c>
+      <c r="O11" t="n">
+        <v>36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>172</v>
+      </c>
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="inlineStr">
         <is>
@@ -3649,6 +3833,32 @@
       <c r="AI22" t="n">
         <v>3</v>
       </c>
+      <c r="AK22" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -3725,6 +3935,32 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="AB24" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -3854,6 +4090,34 @@
       </c>
       <c r="H29" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>36</v>
+      </c>
+      <c r="D30" t="n">
+        <v>34</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="n">
+        <v>36</v>
+      </c>
+      <c r="G30" t="n">
+        <v>36</v>
+      </c>
+      <c r="H30" t="n">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +4138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4177,6 +4441,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>35</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -4299,6 +4589,32 @@
       <c r="Q4" t="n">
         <v>7</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>35</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -4471,6 +4787,32 @@
       <c r="AI6" t="n">
         <v>3</v>
       </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7">
       <c r="J7" s="1" t="n"/>
@@ -4523,6 +4865,32 @@
       </c>
     </row>
     <row r="8">
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>35</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -4598,6 +4966,34 @@
       </c>
       <c r="AI10" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +5013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5456,6 +5852,32 @@
       <c r="Q7" t="n">
         <v>2</v>
       </c>
+      <c r="S7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>27</v>
+      </c>
+      <c r="V7" t="n">
+        <v>21</v>
+      </c>
+      <c r="W7" t="n">
+        <v>18</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>116</v>
+      </c>
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="inlineStr">
         <is>
@@ -5628,6 +6050,32 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21</v>
+      </c>
+      <c r="N9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O9" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>116</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -6122,6 +6570,32 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>116</v>
+      </c>
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="inlineStr">
         <is>
@@ -6196,6 +6670,32 @@
       <c r="AI17" t="n">
         <v>5</v>
       </c>
+      <c r="AK17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="18">
       <c r="AB18" s="1" t="n"/>
@@ -6273,6 +6773,34 @@
       </c>
       <c r="AI20" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AB21" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6293,7 +6821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6592,6 +7120,138 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6606,7 +7266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AR7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6909,6 +7569,32 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="inlineStr">
         <is>
@@ -6932,6 +7618,32 @@
       </c>
       <c r="Q3" t="n">
         <v>2</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>11</v>
       </c>
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="inlineStr">
@@ -7131,6 +7843,58 @@
       </c>
     </row>
     <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
       <c r="AK6" s="1" t="n"/>
       <c r="AL6" s="1" t="inlineStr">
         <is>
@@ -7154,6 +7918,34 @@
       </c>
       <c r="AR6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="AK7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7172,7 +7964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7475,6 +8267,58 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8</v>
+      </c>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="inlineStr">
         <is>
@@ -7549,6 +8393,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -7572,6 +8442,32 @@
       </c>
       <c r="AI4" t="n">
         <v>2</v>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7598,6 +8494,34 @@
       </c>
       <c r="AI5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7616,7 +8540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8089,6 +9013,32 @@
       <c r="Q4" t="n">
         <v>13</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>46</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -8261,6 +9211,32 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>46</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -8631,6 +9607,32 @@
       <c r="H11" t="n">
         <v>3</v>
       </c>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
       <c r="AK11" s="1" t="n"/>
       <c r="AL11" s="1" t="inlineStr">
         <is>
@@ -8830,6 +9832,60 @@
       </c>
       <c r="H15" t="n">
         <v>1</v>
+      </c>
+      <c r="AK15" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>7</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -8850,7 +9906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9323,6 +10379,32 @@
       <c r="Q4" t="n">
         <v>4</v>
       </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>28</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -9347,8 +10429,60 @@
       <c r="AI4" t="n">
         <v>4</v>
       </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28</v>
+      </c>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="inlineStr">
         <is>
@@ -9399,6 +10533,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>28</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -9578,6 +10738,34 @@
       </c>
       <c r="AI12" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -9598,7 +10786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR10"/>
+  <dimension ref="A1:AR11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9925,6 +11113,58 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>28</v>
+      </c>
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="inlineStr">
         <is>
@@ -9975,6 +11215,32 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -10149,6 +11415,32 @@
       <c r="AI7" t="n">
         <v>3</v>
       </c>
+      <c r="AK7" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="AB8" s="1" t="n"/>
@@ -10226,6 +11518,34 @@
       </c>
       <c r="AI10" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10244,7 +11564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR12"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10693,6 +12013,58 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>43</v>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>15</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>43</v>
+      </c>
       <c r="AB4" s="1" t="n"/>
       <c r="AC4" s="1" t="inlineStr">
         <is>
@@ -10817,6 +12189,32 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>43</v>
+      </c>
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="inlineStr">
         <is>
@@ -10840,6 +12238,32 @@
       </c>
       <c r="AI6" t="n">
         <v>3</v>
+      </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -10996,6 +12420,34 @@
       </c>
       <c r="AI12" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -11016,7 +12468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR16"/>
+  <dimension ref="A1:AR17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11611,6 +13063,32 @@
       <c r="Q5" t="n">
         <v>4</v>
       </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12</v>
+      </c>
+      <c r="W5" t="n">
+        <v>15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>70</v>
+      </c>
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="inlineStr">
         <is>
@@ -11979,6 +13457,32 @@
       <c r="H9" t="n">
         <v>18</v>
       </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>70</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -12103,6 +13607,32 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19</v>
+      </c>
+      <c r="H11" t="n">
+        <v>70</v>
+      </c>
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="inlineStr">
         <is>
@@ -12400,6 +13930,60 @@
       </c>
       <c r="AR16" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12420,7 +14004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13381,6 +14965,32 @@
       <c r="Q8" t="n">
         <v>11</v>
       </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>23</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30</v>
+      </c>
+      <c r="W8" t="n">
+        <v>32</v>
+      </c>
+      <c r="X8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>135</v>
+      </c>
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="inlineStr">
         <is>
@@ -13455,6 +15065,32 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>23</v>
+      </c>
+      <c r="M9" t="n">
+        <v>30</v>
+      </c>
+      <c r="N9" t="n">
+        <v>32</v>
+      </c>
+      <c r="O9" t="n">
+        <v>26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>135</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -14097,6 +15733,32 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30</v>
+      </c>
+      <c r="E18" t="n">
+        <v>32</v>
+      </c>
+      <c r="F18" t="n">
+        <v>26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24</v>
+      </c>
+      <c r="H18" t="n">
+        <v>135</v>
+      </c>
       <c r="AB18" s="1" t="n"/>
       <c r="AC18" s="1" t="inlineStr">
         <is>
@@ -14171,6 +15833,32 @@
       <c r="AI19" t="n">
         <v>3</v>
       </c>
+      <c r="AK19" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="20">
       <c r="AB20" s="1" t="n"/>
@@ -14196,6 +15884,34 @@
       </c>
       <c r="AI20" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AB21" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -14216,7 +15932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14567,6 +16283,32 @@
       <c r="Q3" t="n">
         <v>24</v>
       </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>30</v>
+      </c>
       <c r="AB3" s="1" t="n"/>
       <c r="AC3" s="1" t="inlineStr">
         <is>
@@ -14738,6 +16480,112 @@
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -14757,7 +16605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15840,6 +17688,32 @@
       <c r="Q9" t="n">
         <v>11</v>
       </c>
+      <c r="S9" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>26</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31</v>
+      </c>
+      <c r="W9" t="n">
+        <v>26</v>
+      </c>
+      <c r="X9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>121</v>
+      </c>
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="inlineStr">
         <is>
@@ -16208,6 +18082,32 @@
       <c r="H13" t="n">
         <v>5</v>
       </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26</v>
+      </c>
+      <c r="M13" t="n">
+        <v>31</v>
+      </c>
+      <c r="N13" t="n">
+        <v>26</v>
+      </c>
+      <c r="O13" t="n">
+        <v>27</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>121</v>
+      </c>
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="inlineStr">
         <is>
@@ -16504,6 +18404,32 @@
       <c r="H17" t="n">
         <v>7</v>
       </c>
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>121</v>
+      </c>
       <c r="AK17" s="1" t="n"/>
       <c r="AL17" s="1" t="inlineStr">
         <is>
@@ -16530,6 +18456,32 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31</v>
+      </c>
+      <c r="E18" t="n">
+        <v>26</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11</v>
+      </c>
+      <c r="H18" t="n">
+        <v>121</v>
+      </c>
       <c r="AK18" s="1" t="n"/>
       <c r="AL18" s="1" t="inlineStr">
         <is>
@@ -16605,6 +18557,34 @@
       </c>
       <c r="AR20" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AK21" s="1" t="inlineStr">
+        <is>
+          <t>Razem</t>
+        </is>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/schedules/schedule_teachers-grouped_overview.xlsx
+++ b/schedules/schedule_teachers-grouped_overview.xlsx
@@ -2552,10 +2552,8 @@
         <v>1</v>
       </c>
       <c r="AK7" s="1" t="n"/>
-      <c r="AL7" s="1" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
+      <c r="AL7" s="1" t="n">
+        <v>101</v>
       </c>
       <c r="AM7" t="n">
         <v>1</v>
@@ -3760,10 +3758,8 @@
         <v>4</v>
       </c>
       <c r="AK21" s="1" t="n"/>
-      <c r="AL21" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AL21" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
@@ -6397,10 +6393,8 @@
         <v>5</v>
       </c>
       <c r="AK13" s="1" t="n"/>
-      <c r="AL13" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -7099,10 +7093,8 @@
           <t>sala</t>
         </is>
       </c>
-      <c r="AL2" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL2" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -9064,10 +9056,8 @@
         <v>5</v>
       </c>
       <c r="AK4" s="1" t="n"/>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>209</t>
-        </is>
+      <c r="AL4" s="1" t="n">
+        <v>209</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -9734,10 +9724,8 @@
         <v>4</v>
       </c>
       <c r="AK13" s="1" t="n"/>
-      <c r="AL13" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL13" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
@@ -11366,10 +11354,8 @@
         <v>2</v>
       </c>
       <c r="AK6" s="1" t="n"/>
-      <c r="AL6" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="AL6" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -11964,10 +11950,8 @@
         <v>3</v>
       </c>
       <c r="AK3" s="1" t="n"/>
-      <c r="AL3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
         <v>7</v>
@@ -13212,10 +13196,8 @@
         <v>5</v>
       </c>
       <c r="AK6" s="1" t="n"/>
-      <c r="AL6" s="1" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+      <c r="AL6" s="1" t="n">
+        <v>103</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -13310,10 +13292,8 @@
         <v>1</v>
       </c>
       <c r="AK7" s="1" t="n"/>
-      <c r="AL7" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL7" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -13582,10 +13562,8 @@
         <v>3</v>
       </c>
       <c r="AK10" s="1" t="n"/>
-      <c r="AL10" s="1" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
+      <c r="AL10" s="1" t="n">
+        <v>115</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
@@ -13808,10 +13786,8 @@
         <v>9</v>
       </c>
       <c r="AK14" s="1" t="n"/>
-      <c r="AL14" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL14" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
         <v>3</v>
@@ -13858,10 +13834,8 @@
         <v>8</v>
       </c>
       <c r="AK15" s="1" t="n"/>
-      <c r="AL15" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="AL15" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -13908,10 +13882,8 @@
         <v>2</v>
       </c>
       <c r="AK16" s="1" t="n"/>
-      <c r="AL16" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="AL16" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -15116,10 +15088,8 @@
         <v>11</v>
       </c>
       <c r="AK9" s="1" t="n"/>
-      <c r="AL9" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="AL9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -15338,10 +15308,8 @@
         <v>10</v>
       </c>
       <c r="AK12" s="1" t="n"/>
-      <c r="AL12" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
         <v>5</v>
@@ -16432,10 +16400,8 @@
         <v>9</v>
       </c>
       <c r="AK4" s="1" t="n"/>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -17005,10 +16971,8 @@
         <v>2</v>
       </c>
       <c r="AK3" s="1" t="n"/>
-      <c r="AL3" s="1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="AL3" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -17935,10 +17899,8 @@
         <v>1</v>
       </c>
       <c r="AK11" s="1" t="n"/>
-      <c r="AL11" s="1" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
+      <c r="AL11" s="1" t="n">
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -18033,10 +17995,8 @@
         <v>6</v>
       </c>
       <c r="AK12" s="1" t="n"/>
-      <c r="AL12" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="AL12" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
@@ -18207,10 +18167,8 @@
         <v>4</v>
       </c>
       <c r="AK14" s="1" t="n"/>
-      <c r="AL14" s="1" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="AL14" s="1" t="n">
+        <v>102</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -18281,10 +18239,8 @@
         <v>4</v>
       </c>
       <c r="AK15" s="1" t="n"/>
-      <c r="AL15" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="AL15" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
